--- a/data/hotels_by_city/Dallas/Dallas_shard_106.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_106.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="558">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>alexx2x1</t>
+  </si>
+  <si>
     <t>06/06/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Booked my trip March 18th, for April 13th travel date. That part was super easy. We get there on a Friday at 4pm. Only to be told then that the elevator was not work I g and would not be operational until the end of May. I asked why I was not informed of this when I booked. I was told simply I should have been. I was also told she could cancel my reservation if I liked. Where would I have found accommodations on a Friday evening? I asked if my rate would be discounted for the inconvenience, NO. I called their corporate office and was told there would be nothing I could do until I checked out and the received my $169 for my 2 night stay. Called after, still havent recieved a call from corporate. This may be why I am a wyndam rewards member. The photo below is with all of the lights on.More</t>
   </si>
   <si>
+    <t>johnwesleyharden</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r573559191-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>jenniferhR7859QX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r566693266-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>We stayed in a king suite, it had glass doors to separate the bed from the living area with the pull out bed.  Much larger space than typical rooms and that is nice when staying with a child in the room.  Check in was easy. Room was clean but you could hear everyone upstairs a good bit but it didn’t bother us too much as it ended at a reasonable time. Breakfast was good and continuously refreshed. Elevator is not working which didn’t bother us much but if we were staying longer and had more baggage it would have been a pain. Pool and spa were just ok. It was easy to get to and exit the property. We would stay again. More</t>
   </si>
   <si>
+    <t>SaSu183</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r565860971-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>There was a issue with the reservation. The receptionist didn’t find the booking appointment. Although we showed the confirmation. We had to wait like 20 to 30 minutes. She had to book the room again and deleted the other room. As a apology we got the best superior room and we were able to pick a few things out of the shop they had. The room was clean and nice. A nice size. Especially that you can separate the bedroom from the living room.We had 2 TVs in each room. The breakfast was good. A nice small selection. The waffle maker had the shape of Texas. Which was cool. It was quiet. A lot of near by restaurants. We didn’t use the pool. It didn’t look inviting. The elevator was broken. We had to carry all our luggage. All together it was a nice stay.More</t>
   </si>
   <si>
+    <t>gmacfloyd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r562815853-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t>Just one night, but it was a good one. Breakfast was decent, staff was friendly, helpful and eager to please. The layout of the room assisted the quiet by setting the bed slightly back from the line to the doorway and addition of a glass panel, so we heard nothing even though the hotel is located at the intersection of TX380 and TX75. Linens were clean. For an older hotel, they have attempted upgrades to "shine" the property.More</t>
   </si>
   <si>
+    <t>Russ74745</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r562584469-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -292,6 +310,9 @@
   </si>
   <si>
     <t>We got a clean room with a comfortable bed at a good price ( booking thru Choice membership).   Few little bumps, elevator down, a lobby rest room down.  But Haley at the front desk was phenomenal and made it so our stay was bumpless.  Thank you Haley.  (She is a keeper, Comfort Suites)More</t>
+  </si>
+  <si>
+    <t>NETexasTraveller</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r550493436-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
@@ -321,6 +342,9 @@
 The room was clean, in the sleeping &amp; living areas,...Normally, a location right at the intersection of two major freeways in a congested area of a big city would be the last place we'd want to stay. In this case, however, the location was perfect. We'd just acquired a new car a block away and my wife was uncomfortable figuring out how to handle this new vehicle in the dark on busy highways. It was also close to the restaurant we wanted to go to AND the Half Price Books flagship store. The central location worked well for us.I was initially worried about the room being noisy; but we didn't hear a thing, in spite of the heavy traffic on nearby freeways. I can't speak for other rooms, but ours was nice and quiet.The room - a suite - was nice and spacious. We had a sitting area with sofa &amp; chair, separated from the sleeping area. The bed was comfortable, though I confess I'm never sure what to do with all those little pillows they use these days. I'd be happier with one substantial pillow for each of us. I'd have also liked it if the air unit could have heat AND the fan on continuously. We like to run the fan for white noise. As it was, there was also a fan in the divider between the sleeping and living area that served the purpose.The room was clean, in the sleeping &amp; living areas, and in the bathroom. As a non-smoking hotel, the smell was inoffensive also.We used our Choice Rewards points to pay for the room, but the price listed on their site was very reasonable, CHEAP even, for all that was offered.More</t>
   </si>
   <si>
+    <t>fnewton2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r537726114-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -348,6 +372,9 @@
     <t>We found this hotel to be very clean, with an excellent breakfast included and very convenient to central Dallas.  The reception was friendly and helpful.  The suite is large and comfortable.  We would be happy to stay here again.More</t>
   </si>
   <si>
+    <t>12youB4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r522384577-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -375,6 +402,9 @@
     <t>The front desk staff is great. Our room was pretty dated but it worked for what we needed. Breakfast was good and the pool was good.On the down side, there is no getting towels from housekeeping unless you talk to the right person, they must be on a strict towel restriction. There were people openly  drinking in the hallway and very loud for a short time. Also there was a weird guy storming around outside for a while so I didn't feel 100% safe, it is a tough neighborhood.More</t>
   </si>
   <si>
+    <t>Chucho T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r491993059-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -399,6 +429,9 @@
     <t>So, I visited Dallas because of my cousin's graduation.  When I checked in, there were cookies and lemon-infused water, which was good. Then, I went in my room, it was a nice, comfortable room. We went to the pool two times, it was not crowded. Comfort Suites really upgraded their hotel. There was security, they could change your towels more often and more. I loved it all, it was perfect and AWESOME!!!  :D  I will book again when in Dallas. More</t>
   </si>
   <si>
+    <t>Sumant P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r470989856-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -426,6 +459,9 @@
     <t>Nice hotel right off the 75, property seems very well maintained and lobby was nice.  good breakfast variety, what you'd expect from a comfort suites good value.  would stay again if traveling through again.More</t>
   </si>
   <si>
+    <t>Gail R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r470027873-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -444,6 +480,9 @@
     <t>Hotel ...great location. Right turn off 75. We missed it the first time, but once we had the landmarks we were good. Extremely easy access to 635, 75 ...easy to start and end the day.The parking was great.  Beautiful roses bushes...all bloomed out!Enjoyed all the staff....warm and friendly. I really liked the lay out of the room ...separate bedroom and living room.I do have suggestions:1) need end tables by the couch (we used the luggage racks with trays2) the counter tops were old and damaged?? 3) we agree with saving water and keeping towels etc for 3 days, but there were towel bars to hang them on.  Towel bars had been taken down with very apparent wall paper repair?? So....4) gout around tub kind of iffy.  Need a professional redo....Breakfast was very nice.More</t>
   </si>
   <si>
+    <t>pecosa43</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r467350092-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -468,6 +507,9 @@
     <t>We really enjoyed the suite with two separate spaces and two tv's. Our only downside was that we specifically went to this hotel for its hot tub since we had spent a cold day outside in six flags. To our dismay, the water had a funny color, the whole place smelled like mold, and the water inside the hot tub smelled like sweat and mold, we did not dare go in. Other than that, breakfast was great.More</t>
   </si>
   <si>
+    <t>GoHeeterGo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r462825534-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -495,6 +537,9 @@
     <t>Stayed here over the weekend to be close to the hockey rink for a tournament. Easy on and off of either hwy 635 or 75. Good choices at breakfast. The rooms have been updated, and our room had plenty of space with bedroom and separate living area with fold out couch. Room also had a fridge and microwave. Friendly staff and easy check-in. Indoor pool and hot tub. Free wi-fi. Excellent value!More</t>
   </si>
   <si>
+    <t>Roy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r456779027-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -522,6 +567,9 @@
     <t>Staff is friendly enough and the rooms are an OK value.  They have done some recent remodeling.  It's all fine, if the one elevator is working.  We have stayed there twice when it was not working, and that was a major bummer.More</t>
   </si>
   <si>
+    <t>collegehottie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r409134843-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -549,6 +597,9 @@
     <t>Room was beyond any thing i expected. Clean. Comfortable. Quite. Bed was amazing. Helpful Staff and had a seperate room than the living areas. Fridge. Microwave. Relaxing and again not what i expected.More</t>
   </si>
   <si>
+    <t>cietta88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r408666581-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -567,6 +618,9 @@
     <t>Great rooms, clean and updated. Rooms are split into bedroom area and sitting area (both with tv which is very convenient when traveling with kids and adults.breakfast needs more items as only very few offered.Construction nearby is noisy but otherwise okay stay:)More</t>
   </si>
   <si>
+    <t>melodyinharmony26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r403362865-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -591,6 +645,9 @@
     <t>This hotel was very nice. Our room was spacious and looked brand new. The staff both afternoon and morning were friendly and welcoming. I especially liked that there was coffee and tea in the room. The breakfast had lots of options, and I was pleasantly surprised by the biscuits and gravy. Next time we are in Dallas, we will stay there again.More</t>
   </si>
   <si>
+    <t>Greg P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r401056166-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -606,6 +663,9 @@
     <t>Excellent hotel for the price.  Rooms were clean, large with sitting room and divided from the bedroom.  Megan at the front desk was very nice and offered great customer service.  I would not hesitate to stay here again.</t>
   </si>
   <si>
+    <t>johnnybench</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r394367192-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -633,6 +693,9 @@
     <t>Older hotel with room in need of an upgrade:  obviously worn surfaces in bathroom, marks on walls in room.  In a room with 2 queens, one bed was right up against the air conditioner outlet.Elevators could use a thorough cleaning.Couldn't get much work done as the WiFi was the slowest of any hotel that I've stayed in this year.Pleasant staff.More</t>
   </si>
   <si>
+    <t>kumarjagdsh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r273721009-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -660,6 +723,9 @@
     <t>nice cool  place.....near to downtown......morning breakfast....swimming pool free wifi....neat and clean property....good room furniture.....shopping is great fun at outlet mall  plano......enjoy....and become fresh   for work....More</t>
   </si>
   <si>
+    <t>Manal K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r270800386-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -684,6 +750,9 @@
     <t>Staff very helpful on moving us to another room after seeing Roche in cabinet. highway car noise from outside couldn't sleep at night add to that someone car alarm was on for along time after mid night.  We left our room at 11 came back at 7 and  room  still not cleaned. When talk to them they say our tag was on door till 3:00 and that's was not true! we had tag on early morning and before leaving at 11 we placed it inside! Room has kind of weird smell. we checked out after all this to another hotel in the area!  More</t>
   </si>
   <si>
+    <t>msroy616</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r269476762-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -711,6 +780,9 @@
     <t>This is a very nice hotel to stay at. It is a little hard to get to but it is worth the price charged for the room. We were in a room away from the expressway and did not notice any noise. The staff were very friendly and the breakfast was very good. I am definitely going to stay here again when in Dallas.More</t>
   </si>
   <si>
+    <t>Mjaj2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r267560619-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -735,6 +807,9 @@
     <t>This was the only Comfort Inn close to my doctors office. The staff is friendly and they gave us great ideas for lunch and dinner. It is a older hotel which could use some updating. Pillow top beds would be a plus. The hotel has a great location but the rooms are a little noisy. Staff is above average but the hotel is average. More</t>
   </si>
   <si>
+    <t>Jeff H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r267206446-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -753,6 +828,9 @@
     <t>We've stayed at this hotel a number of times and never been disappointed.  Smiling staff and afternoon cookies....what could be better?  This is both business and family friendly.  Bring a swimming suit.More</t>
   </si>
   <si>
+    <t>Baldy47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r259224721-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -774,6 +852,9 @@
     <t>This location is a bit tricky to get to, but worth it in terms of overall value. The hotel was clean, and the rooms were well-maintained and beds very comfortable. Since it is located adjacent to Hwy 75 Central Expressway, you'll want to ask for a room near the back (west end) of the property for maximum quiet. Personnel were helpful and courteous. I stayed here during spring break with many families, but the hotel's construction promotes reasonable quiet inside.More</t>
   </si>
   <si>
+    <t>Cheri  M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r257535188-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -795,6 +876,9 @@
     <t>The front desk staff was great!  Breakfast was good. The rooms were really good and spacious.No complaints about the condition of our room. We were happy that there's security on the premises, because there's  lots of foot traffic.  Other than that, we will go back. Great location. More</t>
   </si>
   <si>
+    <t>Tabarick R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r257518052-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -810,6 +894,9 @@
     <t>We are from Mesquite Tx, but when we need a get away we book randomly in the DFW, I came across this hotel on trip advisor , I chose it because the overall reviews were good and because I have a large family and liked the efficiency set up, we had a room with two beds, a living room area,and  a kitchenette, it was perfect and my kids enjoyed the indoor pool, the price was great, most importantly to me the staff was very friendly and polite, I don't know the lady's names that works at the front desk but she was such a sweet lady, and the guy that booked us in Samin was very polite as well, and as so the evening and night staff, we enjoyed our relaxing stay, Thank You All, We will be back!!! Also I have an app called the grubhub, it shows you all the places that deliver food in the area, we ordered late from Picasso's pizza and grill and got delivery at 11.30p.m it was great!!!More</t>
   </si>
   <si>
+    <t>Holley M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r257449586-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -825,6 +912,9 @@
     <t>We were recently on vacation and stayed in many hotels between Texas and Michigan. This hotel was the bottom of the list. This was the only hotel that would not price match Trip Advisor prices, every other hotel did. The cleanliness was lacking as the carpet was dirty, stains on the ceiling as you walk down the hallway, and a few other issues as well. I would definitely choose another hotel upon staying in Dallas again.More</t>
   </si>
   <si>
+    <t>Jarrod L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r256260926-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -843,6 +933,9 @@
     <t>Good hotel. Cheap rates and the suite was generous size with separate siting area. Rooms were clean and had sufficient heating/cooling and TV's in both sitting area and bedroom.Only slighty bad note is strange design of shower and bath using same taps and pulling a pin on bath tap to change between shower and bath but other than that fantastic stay and would stay again if I was in dallas again.15-20 Minute walk to central/LBJ train station.More</t>
   </si>
   <si>
+    <t>CountryKim75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r244149356-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -864,6 +957,9 @@
     <t>Stayed here for 5 nights. My husband had to be here for training.Very clean hotel. Our room was very clean. Comfortable bed.  Breakfast was pretty good. I wasn't impressed w/the hot tub. Was so looking forward to relaxing in it, but the water didn't look very clean. The pool wasn't crystal clear either. It was hard to keep our room temperature regulated, but I didn't camp out in the room all day. Mainly in our room in the evenings &amp; to sleep. If you book this hotel, ask to be on the 3rd level, that way you won't hear all the stomping on the floor above you. It is right by the major highways, you can hear the traffic, but wasn't too bothersome. There is a lot of activity outside on the grounds. Pretty much a walk through for people from apartments to the convienance store. I didn't feel threaten. I would come back to this hotel, but hoping to find another one closer to the school my husband has to go to. Be sure do check on the traveling site. I got my room (2 queen beds) for a little over $50 a night.More</t>
   </si>
   <si>
+    <t>tubastew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r242851022-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -882,6 +978,9 @@
     <t>This is my go-to place when visiting the Dallas area, which is becoming frequent with Dallas based grand-kids. The jucuzzi suites are great.  These re real suites with a room devider, two televisions, celing fan, microwave, fridge, and wet bar.  The breakfast is a standard fare with fruits, eggs, some kind of meat, cereals, juices, coffee, milk, breads, and Texas shaped waffles.  In the evenings, a bowl of homemade cookies await weary travelers (if arrival is early). What sets this place apart is the customer service.  For instance, I realized that I forgot my cell phone bluetooth earpiece in my room. I called and spoke with Katheryn, the manager.  She retrieved the device from the room and mailed it to me.  Would I stay there again?  You betcha!More</t>
   </si>
   <si>
+    <t>Jean A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r240752999-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -900,6 +999,9 @@
     <t>This is a nice facility near the junction of US-75 and I-635. The staff was friendly. Bargain rate.  We ate at a great barbecue place just a few blocks away. The next morning it was an easy drive to the Bush Library.More</t>
   </si>
   <si>
+    <t>Journeytonowhere</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r231383430-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -921,6 +1023,9 @@
     <t>The rooms were clean and the staff were friendly and efficient. The only complaint was breakfast was not maintained with the amount of people eating. If a hotel is going to provide breakfast please provide your staff with more equipment to keep up. More</t>
   </si>
   <si>
+    <t>deebeeinar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r227175214-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1047,9 @@
     <t>We stayed here for two nights over the Labor Day weekend in room 314. Our room itself was basic. There is a couch area with TV and a sink with a microwave above it. There is also a sink inside the bathroom, so 2 sinks come in handy when you're a family of three! There were no bugs. Also, we never heard any hallway noise while staying there, and that says a lot for a holiday weekend. Don't know if it was because of well-insulated rooms or if the neighbors were just quiet. Breakfast wasn't good: one other patron complained that the orange juice was spoiled (I didn't try it), biscuits were cold and hard, gravy was very cold, and eggs were not refilled. The second day we just went to McDonald's. Though we lowered the A/C drastically, the room didn't seem to get cool enough.The downsides were that it shares a parking lot with a Motel 6 (hookers walking outside in that part), the shower curtain smelled of mildew, and there are no protectors on the pillows. There are, however, mattress protectors.More</t>
   </si>
   <si>
+    <t>courtneyt498</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r211148041-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1077,9 @@
     <t>Me and my fiancé went to stay for a few nights @ this location and I must say overall the stay was wonderful. The staff are welcoming and very helpful. Breakfast was hot and fresh and the rooms were cleaned very well. I would definitely recommend this hotel to family and friends.More</t>
   </si>
   <si>
+    <t>The_Road_Warrior_63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r208417396-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -990,6 +1101,9 @@
     <t>This facility is absolutely fantastic. The staff is friendly and efficient. The breakfast is wonderful. The beds and pillows are superior. The entire hotel is clean. They also have retained the free cookie on check in and one is better than the next. I know because I had a few. The location is right off the highway and very convenient both arriving and leaving. All in all a great stay.More</t>
   </si>
   <si>
+    <t>ElsHwt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r206363355-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1008,6 +1122,9 @@
     <t>I checked the reviews on trip advisor prior to staying here and I have to say that it far exceeded my expectations.  The suite was roomy and clean. We stayed for 4 nights so it was nice to have a refrigerator to store drinks and snacks in.  The breakfast was good.  Robert at the front desk was extremely helpful to us!  I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>kngwdplyrs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r205417497-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1032,6 +1149,9 @@
     <t>I stay here weekly and most visits are pleasant.  The Manager for the Facility is very attentive, and the rooms are clean and spacious.  The location is convenient to 75 and 635.  Overall a good value for the price.More</t>
   </si>
   <si>
+    <t>STARR08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r204388191-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1050,6 +1170,9 @@
     <t>We checked in Friday evening to what we thought was going to be a 3 day weekend. While exiting the elevator to our floor we noticed no ventilation just smoking hot. And from there it just spiraled into us leaving Saturday morning. Our room here kinda seemed like a semi remodel. They left out a lot of simple steps. The Comfort Suites wasn't what I would classify as a Comfort Suites. Maybe more of a Quality Inn &amp; Suites or even Econo Lodge. If you just want a quick nights rest it's for you..but a relaxing weekend not so much. The staff was really nice too. More</t>
   </si>
   <si>
+    <t>Karen E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r152673109-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1071,6 +1194,9 @@
     <t>We stayed there three nights, in a King Bed Suite.  The building is older, but our suite was clean.  The suite had good space, and a wall with parlor doors between the bedroom and the rest, with a fan in the wall to circulate the air between them.  There were three sinks! (in the bathroom, outside the bathroom, and in the kitchen area)  The location is good, right by the intersection of two highways, with restaurants and stores along the frontage roads of both.  I noticed that a different review complained about the staff - I don't know how the younger staff are, but Carolyn (her nametag just says "Front Desk", but she is actually the general manager) is very responsive to needs and accommodating.  At first our A/C unit was rattling, but it was fixed promptly when I notified them.  If you plan to use the business center computer, be aware that it will only allow browsing - you can't run your own software from a USB memory stick (which I had hoped to do).More</t>
   </si>
   <si>
+    <t>Paul C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r148459825-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1098,6 +1224,9 @@
     <t>Staff was very good and helpful. We were in a double queen room and fit are needs. Clean bathroom, Internet worked well. Breakfast was a little thin on items but we did not come to eat. Great location access to any where and close to the dart rail.More</t>
   </si>
   <si>
+    <t>YIISD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r145496198-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1116,6 +1245,9 @@
     <t>This hotel is rather old and desperately needs renovation. My air conditioner didn't work &amp; the furniture was worn out 10 years ago. However, the jacuzzi tub was worth overlooking everything except the non-working A/C. I called maintenance twice. Overall, for the price it was worth it. The front desk staff (1 girl) was NOT welcoming, nor accommodating - in any way. Actually rather rude. No Texas Hospitality Here!If you are looking to save money &amp; want a jacuzzi tub - this is a viable option. More</t>
   </si>
   <si>
+    <t>Miranda T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r143796429-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1137,6 +1269,9 @@
     <t>This hotel was perfect for us, we came as a family for a wedding and this hotel was located close. It was easy to find, the room was neat and clean, food was good, the beds were very comfortable, and the staff was excellent.More</t>
   </si>
   <si>
+    <t>emmysmiles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r140314457-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1155,6 +1290,9 @@
     <t>My husband and I stayed here for our tenth wedding anniversary. A couple of days, just us, no kids. This hotel was perfect for that. Quiet, clean, and friendly staff. We had no complaints whatsoever. Great stay!More</t>
   </si>
   <si>
+    <t>Jackie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r87537055-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1176,6 +1314,9 @@
     <t>We stayed at this motel for two nights checking in on Thursday, November 4th checking out Saturday, November 6th.  Because of the previous reviews about vandalism, we chose to take our older vehicle (2003 Honda Odyssey).  We had no problems while there.  We also didn't leave anything in our car unattended.The place was clean with a decent breakfast.  The front desk people were helpful and friendly.  We stayed one night paying and one night with points.  We had no problems with doing that and stayed in the same room both nights.It was hard to communicate with the cleaning ladies since they didn't have a grasp of the English language.  I realize this is the case in many locations, but frustrating anyway.  I left a tip (either $1 or $2 I can't remember) since the rooms were clean.  I tip when they are clean since a few dollars add up if everyone leaves a little for them.More</t>
   </si>
   <si>
+    <t>thesuperchic327</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r86515567-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1197,6 +1338,9 @@
     <t>Although the Hotel itself is nice, the risk of staying here is not worth it.  We arrived at the hotel after dark, we thought it looked nice and it also has a Country Inn &amp; Suites across the parking lot.  We were literally there for 45 minutes when our car got broken into.  We had gone up to the room and started upacking, my son and his friend went back to the parking lot to get a drink from the cooler in our car.  There was glass all over everywhere, car was completely ransacked and several electronic items including our video camera (which was hidden down in the console) were stolen.  We had left nothing out in plain view. We called Dallas PD, they took an hour and half to respond.  While waiting for the police, we observed the parking lots of both hotels crawling with thugs looking into people's cars, one would even change clothes once in a while from a strategically based bag of clothes sitting behind the dumpster.  We stayed close to the front doors of the hotel while waiting.  We called the PD back to say there were several people checkiing door handles and looking in cars, the still took forever.  When they finally arrived, they informed us that this is not a safe side of town to stay on and that this happens all the time in this parking lot.  The next day in daylight,...Although the Hotel itself is nice, the risk of staying here is not worth it.  We arrived at the hotel after dark, we thought it looked nice and it also has a Country Inn &amp; Suites across the parking lot.  We were literally there for 45 minutes when our car got broken into.  We had gone up to the room and started upacking, my son and his friend went back to the parking lot to get a drink from the cooler in our car.  There was glass all over everywhere, car was completely ransacked and several electronic items including our video camera (which was hidden down in the console) were stolen.  We had left nothing out in plain view. We called Dallas PD, they took an hour and half to respond.  While waiting for the police, we observed the parking lots of both hotels crawling with thugs looking into people's cars, one would even change clothes once in a while from a strategically based bag of clothes sitting behind the dumpster.  We stayed close to the front doors of the hotel while waiting.  We called the PD back to say there were several people checkiing door handles and looking in cars, the still took forever.  When they finally arrived, they informed us that this is not a safe side of town to stay on and that this happens all the time in this parking lot.  The next day in daylight, we discovered there was a low-income apartment building right next door to the Country Inn &amp; Suites (across parking lot from Comfort Suites Park Central).  This is where all the low-life, degenerate, coackroach thugs were flowing out of.  We also observed several obvious hookers (about 2:00 am by this time) flowing in and out the front doors of the Country Inn and Suites.  We alerted the hotel clerk of what had happened.  He didn't seem surprised.  We lost half a day of vacation getting our window replaced and can't replace the electronics.  These hotels do not care about their guests, because if they did, they would have better security.  Either hire a security company or have fenced in parking.  Until this is done, these hotels are showing they could care less about the trap they are setting up for their customers.More</t>
   </si>
   <si>
+    <t>Doe-saurus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r84865408-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1216,6 +1360,9 @@
   </si>
   <si>
     <t>We stayed one night at this hotel with 2 friends. I was in two minds about this place because of the reviews about vehicles being broken into, and we had a Bose sound system in the vehicle that one of our friends use for her music concerts. But we had no problems. The suites are quite spacious. I wish the bathroom sink counter space was bigger, but it was adequate. A couple of lights in our room didn't work, and our friends said that some in their room didn't work either, but there were enough light fixtures that the room had sufficient light. We arrived late night and having the in-room microwave was so convenient for us to heat up the dinner that we brought in. (I do wish Comfort Suites would provide a couple of disposable plates and utensils in the rooms though. That would be so convenient.)Breakfast was ok. The food was hot and plentiful. But the orange juice was pretty watery. We only stayed one night so don't know if this is usual or a fluke.   All in all, the place suited us and we would stay here again if we are in the area.More</t>
+  </si>
+  <si>
+    <t>jrfoster</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r75649016-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
@@ -1243,6 +1390,9 @@
 The breakfast was included and was very good, the waffles came in the shape of Texas! Also were eggs, sausage and bacon, hash browns, cereal, donuts and muffins, bagels, milk, juices and coffee - we found it to be a very wide selection. Staff was not friendly in general, the lady tending to breakfast area talked on her cell phone the whole time each morning so no one was able to ask her any questions, if...Stayed 2 nights at this hotel in August 2010. we booked 2 rooms side by side, one for us and one for our 2 daughters, ages 22 and 19. They were able to have free wi-fi which we found helpful and it also kept them entertained in the evenings. These rooms were $65 per night, plus tax.The rooms were good sized, mini-suite rooms with the beds, and a couch and coffee table, a small desk, and the bathroom. Also we had a mini-fridge and a microwave, and an iron and ironing board in each room. A few small things with our room were loose tiles in the bathroom which wiggled if you stepped on them, and a very loud A/C unit- sort of like a freight train coming through- the fan was vibrating and hitting something, never could get it to quiet down below a dull roar. Also the shower head leaked- it shot up and into the side wall of the shower.The breakfast was included and was very good, the waffles came in the shape of Texas! Also were eggs, sausage and bacon, hash browns, cereal, donuts and muffins, bagels, milk, juices and coffee - we found it to be a very wide selection. Staff was not friendly in general, the lady tending to breakfast area talked on her cell phone the whole time each morning so no one was able to ask her any questions, if needed.We evidently booked this hotel during a massive mob of kids and teenagers- not sure what they were in town for but they ran up and down the halls-still heard them at 1am- but of course this is not the fault of the hotel.We were in a convenient area to pick from many places to eat- went to Pappadeaux Seafood Kitchen- AMAZING! I highly recommend if in the area to give this place a try!More</t>
   </si>
   <si>
+    <t>MattyD47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r62769068-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1262,6 +1412,9 @@
   </si>
   <si>
     <t>I average 10+ trips per year to the Dallas area and this hotel is the one I have stayed at the most.  The only complaint I have is that the AC is turned off when room service cleans the room, so when you check in, it can be a bit stuff.  One other minor issue is that the TVs are a bit old.  The staff is friendly, including the manager Nick.  He recognizes me each time I stay and greats me by name.  The breakfast is good for continental.  The pool and hot tub are nice.  The area is in an area where you can drive to hundreds of restaurants within 5 miles and there are a lot of shopping malls in the area.  Some posts reflect that they do not feel safe staying here.  I have always felt safe, the parking lot is well lit.  The rooms are very large and basically are split into a living room and bedroom.  I have walked down the street to Saltgrass (even at dark) many times and felt safe.   Don't get me wrong, I would not want to walk a few blocks away from the main road.More</t>
+  </si>
+  <si>
+    <t>Printman2000</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r58907202-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
@@ -1293,6 +1446,9 @@
 The mattresses on the beds looked extremely old. My bed has a large brown stain that started on the top and went down the side. Seeing this would have normally led me straight back to the from desk, but there was a VERY clean, white pillowtop add on...Our family of four stayed in a suite with two queen beds and a sofa bed. Check in was quick and efficient. We were given a room on the third floor.The room looked nice and clean. The bathroom was spotless. Closer inspection showed the grout on the tile floor was not in great shape.  A lot of cracks and a few floor tiles were loose. The toilet seemed to get clogged fairly easily so I am betting the floor was in rough shape from it overflowing multiple times. Just hope it got mopped some. The shower head was also in bad shape. It had multiple setting but is was falling apart. I finally got it set on just a normal spray, but it took a lot of fiddling to get that.The rest of the room looked good though one of the beds was pushed up right next to the A/C unit.Looking at the beds, they looked nice and clean. They even use fitted sheets which I really like. HOWEVER, the fitted sheet on my bed was coming off and as I was fixing it I noticed some bad stuff.The mattresses on the beds looked extremely old. My bed has a large brown stain that started on the top and went down the side. Seeing this would have normally led me straight back to the from desk, but there was a VERY clean, white pillowtop add on over the mattress held in place by elastic bands. While that made it tolerable for me, I still cannot give real high marks for this hotel because of this. I just tried to not think about it and what the stain might possibly be.The TV was a big tube TV. However, many channels would show up black. All the channels were mislabeled on the screen. Not sure if it was just our room or the whole place was like that.The breakfast was another downside. The selections where very slim and the person who was suppose to restock items was not very attentive or even around very much. SO really I was stuck eating cereal because all the bagels and pastries were gone. The only hot items I saw were eggs (weird, precooked individual serving eggs) and bacon (very flimsy and thin) or sausage. Not even any biscuits to go with it.The hotel is located next to a couple of apartment complexes. There is a gas station in the next parking lot where it looks like day laborers hang out all day. One evening as I was going to my car I was approached by a young man asking for food money. I would not let kids go outside by themselves day or night.While the price I paid was very good, I doubt I will stay at this hotel again. I would rather pay a bit more to avoid the bad...More</t>
   </si>
   <si>
+    <t>JoshBlack</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r49000857-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1314,6 +1470,9 @@
     <t>I stayed at the Comfort Suites for 3 nights on business and was very suprised at the incredible value. As a small business owner I don't have an expence account so price was the determining factor in my hotel selection. I was very pleased however in the overall quality of the property. It was clean and the staff was friendly. My room was very large with a seperate living area which I actually used for a meeting while I was there. Also I saved money on the free breakfast and did not have to pay extra for wireless internet. I recoment the Comfort Suites to anyone who wants quality on a budget.More</t>
   </si>
   <si>
+    <t>kash24NewYork</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r47963610-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1332,6 +1491,9 @@
     <t>I stay at the hotel on 10/15/09 at the comfort suites. The hotel is  situated on Lbj freeway and  north central expway. I was travelling with my kids and wife. we called the  hotel to ask them if thety could  give us  directions. the front desk helped us with the directions.the hotel had security in the parking lot which made me feel a lot safe.the room was nice and  clean and we had been on road all day so we all hit the bed and wake up for the  hot savory starts breakfast. kids enjoyed it and then we were suppose to hit the road around noon so  we all got ready and front desk helped us wid maps and  surrounding attractions. over all it was  a  very satisfied stay at the comfort suites.More</t>
   </si>
   <si>
+    <t>Marty1010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r42444413-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1353,6 +1515,9 @@
     <t>My family and I stayed at the Comfort Suite Park Central in Dallas,Tx, let me tell you it was very enjoyable and "Comfort"able stay.  By judging the rooms, I belive it was recetenly updated with nice and comfortable beds and soft sheets.  It is a very good hotel for family, since the pool and hottub was very well maintained.to keep the kids entertained.  Hotel staff was excellent in customer service.  I remember my family and I was late for breakfast in the morning, so we had thought we missed the breakfast, then heard a knock on the door and it was the manager of the hotel (Nick) who brought us some breakfast to our room.  I personally do not know any manager of the hotel doing that.  We had a great stay and they took care of our needs.  I would stay again and again at this hotel.More</t>
   </si>
   <si>
+    <t>OregonBoobear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r28874631-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1372,6 +1537,9 @@
   </si>
   <si>
     <t>I travel quite extensively and very seldom do I have such a negative experience.  First night.. pulled back sheet and saw two little black bugs.. but hey its humid and TX and they weren't bedbugs or cockroaches. First morning we went down (on time) to breakfast.. the one lonely sausage (I think it was supposed to be sausage)was burnt black and the one half danish truly looked as if someone had taken a bite out of it and the milk pitchers were empty.  Later a housekeeping trash bag was left next to the elevator for more than an hour and housekeeping wasn't even up on the floor. The plumbing was sluggish at best with showers being taken in ankle deep water.  Later when the toilet continued to be sluggish and we asked to have something done we were handed a plunger!!  We never got to talk to the Manager as apparently they were in California(??).  Second to last day we went to breakfast and sausage was again burned black (there were three total) and no danishes and maybe one small spoonful of eggs.  We went directly to the front desk who only made excuses saying well the power was out.  In fact, the power had been out for about 5 minutes more then an hour previous.  We gathered our stuff and checked out a day early.  No discount no apologies were offered until we pushed a little bit more and...I travel quite extensively and very seldom do I have such a negative experience.  First night.. pulled back sheet and saw two little black bugs.. but hey its humid and TX and they weren't bedbugs or cockroaches. First morning we went down (on time) to breakfast.. the one lonely sausage (I think it was supposed to be sausage)was burnt black and the one half danish truly looked as if someone had taken a bite out of it and the milk pitchers were empty.  Later a housekeeping trash bag was left next to the elevator for more than an hour and housekeeping wasn't even up on the floor. The plumbing was sluggish at best with showers being taken in ankle deep water.  Later when the toilet continued to be sluggish and we asked to have something done we were handed a plunger!!  We never got to talk to the Manager as apparently they were in California(??).  Second to last day we went to breakfast and sausage was again burned black (there were three total) and no danishes and maybe one small spoonful of eggs.  We went directly to the front desk who only made excuses saying well the power was out.  In fact, the power had been out for about 5 minutes more then an hour previous.  We gathered our stuff and checked out a day early.  No discount no apologies were offered until we pushed a little bit more and they asked what we would like to have done.  A guest shouldn't be asked to do their own maintenance and if you are offering breakfast it should at least be edible and enough to eat.  They have ruined Comfort for me forever.More</t>
+  </si>
+  <si>
+    <t>brandon1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r23656135-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
@@ -1403,6 +1571,9 @@
 I also agree with some of the reviews regarding the location not seeming...When we arrived at the hotel, our room was not ready, so they offered us another room, which was OK.  Upon first entering our room, we were very pleased.  It was all that we wanted.  Large king-sz separate room, plenty of space in adjoining room, lots of cupboard space, etc.  All seemed great.  The pool was never packed, so the children had lots of privacy and space to play.Later that evening, we found a few ants crawling in the bathroom, which we killed and ignored.  By next morning, the bathroom was full of ants.  We went to the front desk and they said we could move into the room we were originally to stay in, which we did.  No apologies offered, no discount offered - nothing.The morning we were checking out, we went to the main lobby for the continental breakfast, which by the way was wonderful - hot breakfast every morning - and on the way there, there was a huge bug in the hallway.  When our son came down, he said that that was a cockroach (I had never seen one before).  He had stepped on it to kill it.  We were back and forth from our room to the main lobby and pool several times that morning; the cleaning lady had been down that hallway several times; but the dead bug remained.I also agree with some of the reviews regarding the location not seeming that safe.  However, we did receive an excellent room rate and the room was what we wanted - just did not want the bug problem.I contacted Choice Hotels, who then forwarded my concerns directly to this hotel management, but have heard nothing to date.More</t>
   </si>
   <si>
+    <t>farmergirl38</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r23237178-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1418,6 +1589,9 @@
     <t>Everything here was great, we had a very pleasant stay.  We enjoyed everything.  The room was spacious and quiet.  The kids enjoyed the warm uncrowded pool, I enjoyed the workout room early in the morning, we all ejoyed the comfortable beds, my son even liked the fold-out sofa.  The breakfast was good too.  A bit of advice; make sure not to be late for breakfast, they are prompt at closing time and the tables fill up quickly.  We would love to stay here again, and I wish all hotel stays could be this nice.</t>
   </si>
   <si>
+    <t>sekim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r21344556-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1436,6 +1610,9 @@
     <t>The Hotel room was nice I cant complain at that, but the area the hotel is situated is not that good at all. There is a gas station next to it that had people standing waiting to be picked up for odd jobs! on the last day of my stay I went out to my car to find it had been broken in to in the parking lot and my GPS stolen, the annoying thing is it wasnt even on view, so they must have watched me hide the GPS in my center compartment, they smashed my window and ONLY stole the GPS. If you do stay here, HIDE ANYTHING of value before you park as they must watch you hide things first and then break in !!More</t>
   </si>
   <si>
+    <t>Traveler112233</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r20682727-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1455,6 +1632,9 @@
   </si>
   <si>
     <t>We stayed in the Comfort Suites near the intersection of Hwy 75 (Central Expressway)  and 635 (LBJ) for about a week in early September 2008.   Toward the end of our stay, we returned to our locked room only to find my husband's briefcase with his computer, credit cards, medical insurance cards, etc. stolen.  I lost a large backpack that was full of my genealogy research, several software programs, various books and other items.  A police report was filed and an insurance form provided by the hotel was submitted  to the manager.We have heard nothing from the hotel or the insurance company since.  Later, after contacting the manager, the owner, and the parent company separately, we received no response or communication regarding the insurance or loss.  It has been over a month ago, with no reponse at all.The hotel room itself was adequate, with a fairly comfortable bed, but a totally worn out couch and chair with broken springs.We will never stay there again!Beware!More</t>
+  </si>
+  <si>
+    <t>Livelife2fullest</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r16952321-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
@@ -1477,6 +1657,9 @@
 The only good thing about the place, the price and the room layout. You have a separate living room area and separate bedroom area. Too bad the air conditioning is only in the bedroom area so that made it difficult for the living room to get cool...My husband and I just spent 4 nights at this hotel and overall we were very disappointed. Mostly from two things - our air conditioner was SOOO loud, it  sounded like an airplane engine. We were going to change rooms but figured they would probably all be that loud. Not only was it loud but also rattled - so annoying. But that wasn't the worst part, we got up on our second morning and walked to our car and see some people standing around their car and they asked if our car was ok because their truck's passenger window had been smashed out and items were stolen. Luckily our car was fine but we felt really bad for them. Then the hotel never cleaned up the glass, it was still there when we left this morning! The location of the hotel is not great. It is confusing to find, confusing to get on I-75N from, and there is a sketchy apartment complex right behind it with some creepy/sketchy people walking through the parking lot at all hours. No wonder you have to use your key card to access the front lobby after 9pm!  The only good thing about the place, the price and the room layout. You have a separate living room area and separate bedroom area. Too bad the air conditioning is only in the bedroom area so that made it difficult for the living room to get cool enough. Oh, one last thing, you should bring an eye mask if you want to sleep in, the windows didn't have heavy curtains to keep the room dark. Only sheer curtains, I couldn't believe it. Anyway, I hope this helps you decide if you want to stay here or not. I would personally suggest staying a little more north - like at the Hampton Inn or Holiday Inn Select (along 75 in Richardson).More</t>
   </si>
   <si>
+    <t>RogerTheChipGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r14281081-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1495,6 +1678,9 @@
     <t>March 2008</t>
   </si>
   <si>
+    <t>geoffg32</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r6544751-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1511,6 +1697,9 @@
   </si>
   <si>
     <t>December 2006</t>
+  </si>
+  <si>
+    <t>beentoOz</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109325-r1103196-Comfort_Suites_North_Dallas-Dallas_Texas.html</t>
@@ -2033,43 +2222,47 @@
       <c r="A2" t="n">
         <v>34016</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>125692</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2081,56 +2274,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>34016</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>125693</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2144,50 +2341,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>34016</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>125694</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2201,50 +2402,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>34016</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>125695</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2258,50 +2463,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>34016</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>125696</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>80</v>
       </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2317,56 +2526,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>34016</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>125697</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2378,56 +2591,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>34016</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>125698</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2445,56 +2662,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>34016</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>125699</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2506,56 +2727,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>34016</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>125700</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2573,47 +2798,51 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>34016</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>125701</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
@@ -2630,56 +2859,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>34016</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>125702</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2697,56 +2930,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>34016</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2760,50 +2997,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>34016</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>125703</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2821,56 +3062,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="X14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>34016</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>125704</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="O15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2888,56 +3133,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="X15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>34016</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>50703</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2953,56 +3202,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="X16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>34016</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>125705</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3014,56 +3267,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>34016</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>125706</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3075,56 +3332,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="X18" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="Y18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>34016</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>125707</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="J19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3142,56 +3403,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="X19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="Y19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>34016</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>8350</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="J20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3211,50 +3476,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>34016</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>125708</v>
+      </c>
+      <c r="C21" t="s">
+        <v>213</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3272,56 +3541,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="X21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="Y21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>34016</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>125709</v>
+      </c>
+      <c r="C22" t="s">
+        <v>223</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="J22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="K22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3337,56 +3610,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="X22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Y22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>34016</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>125710</v>
+      </c>
+      <c r="C23" t="s">
+        <v>233</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="O23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3398,56 +3675,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="X23" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Y23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>34016</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>17392</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="L24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="O24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3459,56 +3740,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="X24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="Y24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>34016</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>125711</v>
+      </c>
+      <c r="C25" t="s">
+        <v>252</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="K25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3520,56 +3805,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="X25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="Y25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>34016</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>538</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="K26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="O26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3587,56 +3876,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="X26" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="Y26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>34016</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>125712</v>
+      </c>
+      <c r="C27" t="s">
+        <v>268</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="J27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="K27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3652,56 +3945,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="X27" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="Y27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>34016</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>125713</v>
+      </c>
+      <c r="C28" t="s">
+        <v>276</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="K28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="O28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3713,56 +4010,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="X28" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="Y28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>34016</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>125714</v>
+      </c>
+      <c r="C29" t="s">
+        <v>284</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="J29" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="L29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="O29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3780,56 +4081,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="X29" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="Y29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>34016</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>125715</v>
+      </c>
+      <c r="C30" t="s">
+        <v>290</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="J30" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="K30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="L30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="O30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3847,56 +4152,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="X30" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="Y30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>34016</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>103987</v>
+      </c>
+      <c r="C31" t="s">
+        <v>296</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="J31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="K31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="L31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="O31" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3914,56 +4223,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="X31" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="Y31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>34016</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>125716</v>
+      </c>
+      <c r="C32" t="s">
+        <v>303</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="J32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="K32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3979,56 +4292,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="X32" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Y32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>34016</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>6590</v>
+      </c>
+      <c r="C33" t="s">
+        <v>311</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="J33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="K33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="L33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4046,56 +4363,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="X33" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Y33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>34016</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>97858</v>
+      </c>
+      <c r="C34" t="s">
+        <v>318</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="J34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="K34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4111,56 +4432,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="X34" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Y34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>34016</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>10467</v>
+      </c>
+      <c r="C35" t="s">
+        <v>325</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="J35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="K35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="O35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4172,56 +4497,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="X35" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Y35" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>34016</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>125717</v>
+      </c>
+      <c r="C36" t="s">
+        <v>333</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="J36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="K36" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="O36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4239,56 +4568,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="X36" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Y36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>34016</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>125718</v>
+      </c>
+      <c r="C37" t="s">
+        <v>341</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="J37" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="K37" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="L37" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4310,56 +4643,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="X37" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="Y37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>34016</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>125719</v>
+      </c>
+      <c r="C38" t="s">
+        <v>351</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="J38" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="K38" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="L38" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4381,56 +4718,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="X38" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="Y38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>34016</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>125720</v>
+      </c>
+      <c r="C39" t="s">
+        <v>359</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="J39" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="K39" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="L39" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="O39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4452,56 +4793,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="X39" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="Y39" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>34016</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>125721</v>
+      </c>
+      <c r="C40" t="s">
+        <v>366</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="J40" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="K40" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="L40" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4523,56 +4868,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="X40" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="Y40" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>34016</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>125722</v>
+      </c>
+      <c r="C41" t="s">
+        <v>375</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="J41" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="K41" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="L41" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4584,56 +4933,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="X41" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="Y41" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>34016</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>69632</v>
+      </c>
+      <c r="C42" t="s">
+        <v>382</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="J42" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="K42" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="L42" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4655,56 +5008,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="X42" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Y42" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>34016</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>42097</v>
+      </c>
+      <c r="C43" t="s">
+        <v>390</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="J43" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="K43" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="L43" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="O43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4716,47 +5073,51 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="X43" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="Y43" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>34016</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>125723</v>
+      </c>
+      <c r="C44" t="s">
+        <v>400</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="J44" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="K44" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="L44" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
@@ -4783,56 +5144,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="X44" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="Y44" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>34016</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>125724</v>
+      </c>
+      <c r="C45" t="s">
+        <v>407</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="J45" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="K45" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="L45" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="O45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4854,47 +5219,51 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="X45" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="Y45" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>34016</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>125725</v>
+      </c>
+      <c r="C46" t="s">
+        <v>415</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="J46" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="K46" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="L46" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
@@ -4921,56 +5290,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="X46" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="Y46" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>34016</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>68553</v>
+      </c>
+      <c r="C47" t="s">
+        <v>422</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="J47" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="K47" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="L47" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="O47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4994,50 +5367,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>34016</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>125726</v>
+      </c>
+      <c r="C48" t="s">
+        <v>430</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="J48" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="K48" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="O48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5061,50 +5438,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>34016</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>125727</v>
+      </c>
+      <c r="C49" t="s">
+        <v>438</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="J49" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="K49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="L49" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="O49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5128,50 +5509,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>34016</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>125728</v>
+      </c>
+      <c r="C50" t="s">
+        <v>446</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="J50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="K50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="L50" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="O50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5195,50 +5580,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>34016</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>125729</v>
+      </c>
+      <c r="C51" t="s">
+        <v>454</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="J51" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="K51" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="L51" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5262,50 +5651,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>34016</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>125730</v>
+      </c>
+      <c r="C52" t="s">
+        <v>462</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="J52" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="K52" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="L52" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="O52" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P52" t="n">
         <v>2</v>
@@ -5329,50 +5722,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>34016</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>125731</v>
+      </c>
+      <c r="C53" t="s">
+        <v>470</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="J53" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="K53" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="L53" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="O53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5396,50 +5793,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>34016</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>125732</v>
+      </c>
+      <c r="C54" t="s">
+        <v>478</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="J54" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="K54" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="L54" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="O54" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5463,50 +5864,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>34016</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>125733</v>
+      </c>
+      <c r="C55" t="s">
+        <v>485</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="J55" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="K55" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="L55" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="O55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5530,50 +5935,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>34016</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>125734</v>
+      </c>
+      <c r="C56" t="s">
+        <v>493</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="J56" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="K56" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="L56" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="O56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P56" t="n">
         <v>2</v>
@@ -5597,50 +6006,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>34016</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>125735</v>
+      </c>
+      <c r="C57" t="s">
+        <v>501</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="J57" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="K57" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="L57" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="O57" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P57" t="n">
         <v>2</v>
@@ -5664,41 +6077,45 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>34016</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>125736</v>
+      </c>
+      <c r="C58" t="s">
+        <v>509</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="J58" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="K58" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="L58" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
@@ -5727,41 +6144,45 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>34016</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>125737</v>
+      </c>
+      <c r="C59" t="s">
+        <v>515</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="J59" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="K59" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="L59" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
@@ -5780,50 +6201,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>34016</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>125738</v>
+      </c>
+      <c r="C60" t="s">
+        <v>522</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="J60" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="K60" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="L60" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -5847,41 +6272,45 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>34016</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>125739</v>
+      </c>
+      <c r="C61" t="s">
+        <v>530</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="J61" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="K61" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="L61" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
@@ -5900,50 +6329,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>34016</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>125740</v>
+      </c>
+      <c r="C62" t="s">
+        <v>537</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="J62" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="K62" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="L62" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="O62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -5967,50 +6400,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>34016</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>125741</v>
+      </c>
+      <c r="C63" t="s">
+        <v>544</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="J63" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="K63" t="s">
-        <v>486</v>
+        <v>548</v>
       </c>
       <c r="L63" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="O63" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6034,41 +6471,45 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>34016</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>125742</v>
+      </c>
+      <c r="C64" t="s">
+        <v>551</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>490</v>
+        <v>553</v>
       </c>
       <c r="J64" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="K64" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
       <c r="L64" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
@@ -6087,7 +6528,7 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>494</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
